--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37C738E2-58C8-40CE-AF1C-249BAAFBEE5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,17 +29,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -290,11 +289,303 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어플리케이션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기존</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계확과의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대조</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -409,7 +700,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -442,8 +733,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,10 +745,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,23 +1137,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -867,21 +1165,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -901,8 +1199,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
         <v>43714</v>
       </c>
       <c r="B6" s="3">
@@ -914,263 +1212,287 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>100</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>75</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
@@ -1189,12 +1511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1206,12 +1528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1223,12 +1545,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1240,12 +1562,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1257,12 +1579,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1274,12 +1596,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1291,12 +1613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1308,12 +1630,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1325,12 +1647,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1342,12 +1664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1359,12 +1681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1376,12 +1698,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1393,12 +1715,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1410,12 +1732,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1427,12 +1749,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485AD3A9-77D3-46C8-9B68-06F5D0690735}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -29,17 +30,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -291,16 +292,46 @@
   </si>
   <si>
     <r>
-      <t>9</t>
+      <t>Target Application Review를</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="돋움"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>월</t>
+      <t xml:space="preserve"> 바탕으로 재논의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 리스트업</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>피드백을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 바탕으로 </t>
     </r>
     <r>
       <rPr>
@@ -308,28 +339,84 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 17</t>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재설정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">기존 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능 재논의 &amp; 새로운</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Target Application 논의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Use Case Diagram 작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Target Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로젝트</t>
+      <t>기능</t>
     </r>
     <r>
       <rPr>
@@ -337,247 +424,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">, Use Case Diagram, Use Case Outline </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="돋움"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>계획서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피드백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방향</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모의</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여타</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어플리케이션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기존</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계확과의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대조</t>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -585,12 +441,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -659,6 +515,29 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -700,7 +579,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -710,8 +589,6 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,9 +598,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -733,31 +607,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1137,366 +1039,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="58.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="2" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="4" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>43714</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="17">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="19">
         <v>100</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>43726</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>75</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>43727</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.5625</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>75</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D7" s="9">
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>43732</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="D9" s="18">
+        <v>60</v>
+      </c>
+      <c r="E9" s="24">
+        <v>120</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>43733</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="D10" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E10" s="19">
+        <v>120</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>43734</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>75</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="F11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.5625</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D8" s="9">
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>43735</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="27">
         <v>0</v>
       </c>
-      <c r="E8" s="14">
-        <v>75</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="E12" s="28">
+        <v>120</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="15"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="15"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="15"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="15"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="4"/>
     </row>
   </sheetData>
@@ -1511,12 +1461,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1528,12 +1478,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1545,12 +1495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1562,12 +1512,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1579,12 +1529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1596,12 +1546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1613,12 +1563,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1630,12 +1580,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1647,12 +1597,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1664,12 +1614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1681,12 +1631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1698,12 +1648,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1715,12 +1665,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1732,12 +1682,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1749,12 +1699,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485AD3A9-77D3-46C8-9B68-06F5D0690735}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -30,17 +29,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -437,11 +436,170 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바탕으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재설정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -579,7 +737,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -656,10 +814,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1039,23 +1200,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="58.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1067,10 +1228,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -1080,8 +1241,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1101,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>43714</v>
       </c>
@@ -1121,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>43726</v>
       </c>
@@ -1141,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>43727</v>
       </c>
@@ -1161,7 +1322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>43732</v>
       </c>
@@ -1181,7 +1342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>43733</v>
       </c>
@@ -1201,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>43734</v>
       </c>
@@ -1221,7 +1382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>43735</v>
       </c>
@@ -1241,103 +1402,127 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>120</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
       <c r="E15" s="12"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
       <c r="E16" s="12"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
       <c r="E17" s="12"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
       <c r="E19" s="12"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
       <c r="E20" s="12"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
       <c r="E22" s="12"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
       <c r="E23" s="12"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1345,7 +1530,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1353,7 +1538,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1361,7 +1546,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1369,7 +1554,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1377,7 +1562,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1385,7 +1570,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1393,7 +1578,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1401,7 +1586,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1409,7 +1594,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1417,7 +1602,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1425,7 +1610,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1433,7 +1618,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1441,7 +1626,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1461,12 +1646,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1478,12 +1663,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1495,12 +1680,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1512,12 +1697,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1529,12 +1714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1546,12 +1731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1563,12 +1748,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1580,12 +1765,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1597,12 +1782,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1614,12 +1799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1631,12 +1816,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1648,12 +1833,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1665,12 +1850,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1682,12 +1867,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1699,12 +1884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DDE0E6-1589-4EB7-912D-CA82B976DB2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7485"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -29,17 +30,17 @@
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -438,7 +439,36 @@
   </si>
   <si>
     <r>
-      <t>10</t>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 교수님 피드백 사항 점검 및 수정</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">User </t>
     </r>
     <r>
       <rPr>
@@ -447,159 +477,37 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
+      <t xml:space="preserve">선정, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>일</t>
+      <t>핵심로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 관련 구체화(시간표 구성 요건, 피드백로직)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피드백을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바탕으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Use Case Outline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재설정</t>
-    </r>
+    <t>Use Case Spec 작성</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Spec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>논의</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -814,13 +722,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1200,23 +1106,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="58.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1228,10 +1134,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -1241,8 +1147,8 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:6" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>43714</v>
       </c>
@@ -1282,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43726</v>
       </c>
@@ -1302,7 +1208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43727</v>
       </c>
@@ -1322,7 +1228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43732</v>
       </c>
@@ -1330,19 +1236,19 @@
         <v>0.75</v>
       </c>
       <c r="C9" s="17">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D9" s="18">
         <v>60</v>
       </c>
       <c r="E9" s="24">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>43733</v>
       </c>
@@ -1350,19 +1256,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C10" s="17">
-        <v>0.875</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D10" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E10" s="19">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>43734</v>
       </c>
@@ -1382,7 +1288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>43735</v>
       </c>
@@ -1402,127 +1308,139 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>17</v>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="25">
+        <v>43739</v>
       </c>
       <c r="B13" s="3">
-        <v>0.5625</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C13" s="3">
-        <v>0.61458333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
       </c>
       <c r="E13" s="12">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A14" s="25">
+        <v>43743</v>
       </c>
       <c r="B14" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="C14" s="3">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="12">
-        <v>120</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+        <v>150</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>43745</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>180</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7"/>
       <c r="E16" s="12"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="7"/>
       <c r="E17" s="12"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
       <c r="E19" s="12"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
       <c r="E20" s="12"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
       <c r="E22" s="12"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
       <c r="E23" s="12"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1530,7 +1448,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1538,7 +1456,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1546,7 +1464,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1554,7 +1472,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1562,7 +1480,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1570,7 +1488,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1578,7 +1496,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1586,7 +1504,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1594,7 +1512,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1602,7 +1520,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1610,7 +1528,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1618,7 +1536,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1626,7 +1544,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1646,12 +1564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1663,12 +1581,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1680,12 +1598,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1697,12 +1615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1714,12 +1632,12 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1731,12 +1649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1748,12 +1666,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1765,12 +1683,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1782,12 +1700,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1799,12 +1717,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1816,12 +1734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1833,12 +1751,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1850,12 +1768,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1867,12 +1785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1884,12 +1802,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DDE0E6-1589-4EB7-912D-CA82B976DB2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24305C6C-2383-4166-9962-DFA32C6C3127}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -501,6 +501,21 @@
   </si>
   <si>
     <t>Use Case Spec 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GUI Review, Use Case Spec Review, 핵심</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 로직 논의</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1125,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1369,12 +1384,24 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="25">
+        <v>43751</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30</v>
+      </c>
+      <c r="E16" s="12">
+        <v>300</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24305C6C-2383-4166-9962-DFA32C6C3127}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB7135-097B-4738-8789-7E189BD2367A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -515,6 +515,21 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 로직 논의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Initial Data, Use Case Spec, DB 설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등 각자 작업물 Review</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1125,7 +1140,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1404,12 +1419,24 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="25">
+        <v>43762</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>120</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB7135-097B-4738-8789-7E189BD2367A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6DC4EC-C0CD-4111-82B9-0B77A6C9FE77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -530,6 +530,21 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 등 각자 작업물 Review</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Key Class Design, Table Design, Coding Guideline, 추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 설명 4개 작업물 Review</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1140,7 +1155,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1164,7 @@
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11.453125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="58.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1438,13 +1453,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="25">
+        <v>43775</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>120</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6DC4EC-C0CD-4111-82B9-0B77A6C9FE77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B16EE-6B9C-48DF-834F-1B4AE34DFF6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -535,7 +535,16 @@
   </si>
   <si>
     <r>
-      <t>Key Class Design, Table Design, Coding Guideline, 추천로직</t>
+      <t xml:space="preserve">Key Class Design, Table Design, Coding Guideline, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천로직</t>
     </r>
     <r>
       <rPr>
@@ -545,6 +554,36 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 설명 4개 작업물 Review</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 논의</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Key Class Design, Table Design 수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 용어 통일</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1155,7 +1194,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1473,21 +1512,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="4"/>
+    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>43781</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D19" s="7">
+        <v>30</v>
+      </c>
+      <c r="E19" s="12">
+        <v>150</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="25">
+        <v>43782</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>120</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B16EE-6B9C-48DF-834F-1B4AE34DFF6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{673B16EE-6B9C-48DF-834F-1B4AE34DFF6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{87C020D0-0E30-4471-9918-08CB97C58B65}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -584,6 +584,71 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 및 용어 통일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 환경 세팅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 결과물을 위한 업무 분배</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요람 데이터 정제 작업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 문서작성 등 개별 업무 진행</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 업무 진행(각종 정보 입력 및 저장 구현, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">HTML/CSS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업, 추천 로직 구현, 문서 작성)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -697,7 +762,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -720,6 +785,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -729,7 +805,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -807,6 +883,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1193,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1553,52 +1632,124 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="4"/>
+      <c r="A21" s="25">
+        <v>43788</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>75</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="25">
+        <v>43790</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>75</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A23" s="25">
+        <v>43795</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>75</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="4"/>
+      <c r="A24" s="25">
+        <v>43797</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>75</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A25" s="11">
+        <v>43799</v>
+      </c>
+      <c r="B25" s="32">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>120</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.45">
+      <c r="A26" s="11">
+        <v>43799</v>
+      </c>
+      <c r="B26" s="32">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D26" s="6">
+        <v>120</v>
+      </c>
+      <c r="E26" s="6">
+        <v>420</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>

--- a/PSP_Sheets/PSP_Sheet_2조.xlsx
+++ b/PSP_Sheets/PSP_Sheet_2조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjy20\OneDrive - 서강대학교\2019년 2학기\융합소프트웨어종합설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{673B16EE-6B9C-48DF-834F-1B4AE34DFF6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{87C020D0-0E30-4471-9918-08CB97C58B65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC804E9B-14F9-454C-9607-8CD39A0D0945}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -649,6 +649,49 @@
         <charset val="129"/>
       </rPr>
       <t>작업, 추천 로직 구현, 문서 작성)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Test Case를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 Data Set 논의 및 Data 생성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 업무 진행(시간표 데이터 GUI 구현, HTML/CSS 작업, 요람 데이터 가공, Test Data 생성)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 추천 로직 구현 논의 , Test Case 점검, 추천로직 구현, HTML/CSS 작업, Sequence Diagram 작성, SRS 점검</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -805,7 +848,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -886,6 +929,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -1273,7 +1317,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1326,7 @@
     <col min="2" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11.453125" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="74.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="98.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1751,37 +1795,85 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="4"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="11">
+        <v>43801</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>240</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="11">
+        <v>43804</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="7">
+        <v>30</v>
+      </c>
+      <c r="E28" s="12">
+        <v>240</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="4"/>
+      <c r="A29" s="11">
+        <v>43805</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D29" s="7">
+        <v>60</v>
+      </c>
+      <c r="E29" s="12">
+        <v>420</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="11">
+        <v>43806</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D30" s="7">
+        <v>60</v>
+      </c>
+      <c r="E30" s="12">
+        <v>360</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
